--- a/Excel2Json/Test/buff.xlsx
+++ b/Excel2Json/Test/buff.xlsx
@@ -83,44 +83,40 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="215">
   <si>
     <t>buffer Id</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>最大叠加层数</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>生效间隔
 0即刻生效</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>目标特效</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>目标特效绑点</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
@@ -132,15 +128,15 @@
     <t>是否显示图标
 1.是
 0.不是</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -156,19 +152,19 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>buffer_type</t>
@@ -190,17 +186,17 @@
 3. 负面物理
 4. 负面控制
 5. 负面伤害(2+3）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>是否由事件触发（event表）
 1 是
 2 否</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -216,17 +212,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>事件生效的次数</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>target_sfx</t>
@@ -257,7 +247,7 @@
   </si>
   <si>
     <t>奇异博士眩晕</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -273,11 +263,11 @@
       </rPr>
       <t>uff动画</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>play_animation</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero109_Hit_xuanyun</t>
@@ -286,22 +276,6 @@
     <t>Hit1</t>
   </si>
   <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>tring</t>
-    </r>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
     <t>九连击后突击</t>
   </si>
   <si>
@@ -327,31 +301,31 @@
       </rPr>
       <t>ydra狙击兵普攻伤害</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>持续时间
 -1表示无穷大
 0表示立刻生效</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>overlay_number</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>最大层数是否清除buff
 0.不清除
 1.清除</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>max_overlay_effect</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>蜘蛛侠闪避</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -367,7 +341,7 @@
       </rPr>
       <t>_type</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -393,11 +367,11 @@
       </rPr>
       <t>_max_overlay</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>state_buff_type</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -413,19 +387,19 @@
       </rPr>
       <t>param</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>眩晕</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>buff作用分类
@@ -465,11 +439,11 @@
       </rPr>
       <t>_buff_param</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>attr_buff_param_map</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -502,15 +476,15 @@
       </rPr>
       <t>ffect_delay</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>到达最大层数后逻辑延迟时间</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队大招击退</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -526,21 +500,18 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>target_ui</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
     <t>蜘蛛嘴炮</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队普攻1段击退</t>
@@ -554,7 +525,7 @@
   <si>
     <t>击退
 距离|时间</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -571,7 +542,7 @@
       <t xml:space="preserve">
 状态类对应参数</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -598,37 +569,37 @@
       <t xml:space="preserve">
 最大层数的效果</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>触发条件id（event的id）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>销毁特效</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>destroy_sfx</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队大招不被选</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队大招buff</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>免伤参数</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>免伤类buff子类
 1.次数型
 2.数值型</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -644,46 +615,46 @@
       </rPr>
       <t>void_damage_type</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>avoid_damage_param</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>目标音效</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>target_audio</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>蜘蛛侠技能1不被选</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>蜘蛛侠技能2不被选</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>蜘蛛侠大招不被选</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>蜘蛛普攻击退</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero110_passive02</t>
   </si>
   <si>
     <t>蜘蛛嘴炮减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>回血（脱战）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>buff_zuipao</t>
@@ -735,27 +706,11 @@
   </si>
   <si>
     <t>72:-10000</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>map&lt;int,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int&gt;</t>
-    </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -781,31 +736,31 @@
       </rPr>
       <t>000</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>小Buff（单体回血）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>大Buff（队伍回血）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>11:6666</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>11:888</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero109_Skill_004_buff</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>3000|120</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -831,35 +786,35 @@
       </rPr>
       <t>000</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，大招减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，技能2减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，技能2叠层</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，普攻4击退</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，大招眩晕</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，被动叠层</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>钢铁侠被动护盾</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -875,23 +830,23 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>奇异博士，被动子弹</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>191:1000</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队被动效果</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero109_Hit_xuanyun</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -908,23 +863,23 @@
       </rPr>
       <t>击飞</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队飞盾击退</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队飞盾减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队冲锋眩晕</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>灭霸大招眩晕</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -941,7 +896,7 @@
       </rPr>
       <t>真实伤害</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -958,7 +913,7 @@
       </rPr>
       <t>吸血效果</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -984,7 +939,7 @@
       </rPr>
       <t>2500</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>avoid_damage_skill_type</t>
@@ -1003,11 +958,11 @@
       </rPr>
       <t>nt</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1105,7 +1060,7 @@
       <t xml:space="preserve">
 通过几个数值相加达到混合的效果比如同时对普攻和技能生效配3，同时对技能和大招生效配6</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1127,65 +1082,39 @@
       </rPr>
       <t>5.击飞</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>hitfly_buff_param</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>vector&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>击飞对应参数：
 击飞高度 | 击飞总时长（帧数，双倍帧数）| 顶点停滞时间（帧数，双倍帧数）</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero109_Skill_000_wp</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>灭霸技能1眩晕1</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>灭霸技能1眩晕2</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇，技能1减速</t>
   </si>
   <si>
     <t>黑寡妇，技能1沉默</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇，技能1致盲</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1217,43 +1146,23 @@
 14.真实伤害
 15. 击飞</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>72:-7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>000</t>
-    </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>wp</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>长枪兵突刺伤害</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>avoid_damage_success_sfx</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>格挡成功的特效</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1279,35 +1188,35 @@
       </rPr>
       <t>00</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>SE_Hit109_shield_01</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero109_Defence</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>美队被动倒计时</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>复活无敌</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero110_Skill003_debuff01</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>Hit3</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>魔法球伤害降低</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1333,31 +1242,27 @@
       </rPr>
       <t>:-5000</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>110，叠层</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>110，sk2减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>大招减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>格挡成功的特效绑点</t>
-    <phoneticPr fontId="52" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>avoid_damage_success_sfx_position</t>
@@ -1367,11 +1272,11 @@
   </si>
   <si>
     <t>102，隐身加速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇，技能2加速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1387,7 +1292,7 @@
       </rPr>
       <t>3500</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1403,27 +1308,27 @@
       </rPr>
       <t>silence</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>击飞【小】</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>击飞【中】</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>击飞【大】</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>灵魂锁链</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Npc322_skill_002_01</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1439,15 +1344,15 @@
       </rPr>
       <t>2</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>11:-333</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero104_Skill_000_end_C_Spine</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1463,7 +1368,7 @@
       </rPr>
       <t>02，致盲</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1573,11 +1478,11 @@
       <t xml:space="preserve">
 value: 描述修改值</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>float_ui</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1593,15 +1498,15 @@
       </rPr>
       <t>I</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>Buff_cm</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>沉默</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>Buff_zm</t>
@@ -1620,7 +1525,7 @@
       </rPr>
       <t>2:-8000</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1636,7 +1541,7 @@
       </rPr>
       <t>js</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1662,7 +1567,7 @@
       </rPr>
       <t>减速</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1688,7 +1593,7 @@
       </rPr>
       <t>燃烧</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1714,11 +1619,11 @@
       </rPr>
       <t>000</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>FX_Hero104_Skill_000_C_Spine</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1744,36 +1649,179 @@
       </rPr>
       <t>0</t>
     </r>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>1200|24|0</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>2400|38|2</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>黑寡妇，大招减速</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
   <si>
     <t>72:-4000</t>
-    <phoneticPr fontId="52" type="noConversion"/>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>72:-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3000</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[1000]</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;64</t>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;64</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;32</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tring;32</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vector&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int&gt;;10</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>map&lt;int,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int&gt;;10</t>
+    </r>
+    <phoneticPr fontId="53" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2250,393 +2298,380 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="58" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="57" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="56">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3525,10 +3560,10 @@
   <dimension ref="A1:AJ60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3571,112 +3606,112 @@
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="J1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="91" t="s">
+        <v>145</v>
+      </c>
+      <c r="M1" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="116" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="92" t="s">
+      <c r="O1" s="50" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="91" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="R1" s="102" t="s">
+        <v>172</v>
+      </c>
+      <c r="S1" s="110" t="s">
+        <v>188</v>
+      </c>
+      <c r="T1" s="94" t="s">
         <v>154</v>
       </c>
-      <c r="N1" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="O1" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="P1" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q1" s="101" t="s">
-        <v>167</v>
-      </c>
-      <c r="R1" s="105" t="s">
-        <v>181</v>
-      </c>
-      <c r="S1" s="114" t="s">
-        <v>198</v>
-      </c>
-      <c r="T1" s="95" t="s">
-        <v>161</v>
-      </c>
-      <c r="U1" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="V1" s="45" t="s">
-        <v>79</v>
+      <c r="U1" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>74</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" s="35" t="s">
-        <v>63</v>
+        <v>58</v>
+      </c>
+      <c r="X1" s="34" t="s">
+        <v>59</v>
       </c>
       <c r="Y1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="47" t="s">
-        <v>82</v>
+      <c r="AA1" s="46" t="s">
+        <v>77</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD1" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="35" t="s">
-        <v>64</v>
+        <v>6</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="AF1" s="14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AG1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI1" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ1" s="30" t="s">
-        <v>52</v>
+      <c r="AH1" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:36" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="103" t="s">
-        <v>177</v>
+      <c r="B2" s="100" t="s">
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
@@ -3685,76 +3720,76 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="91" t="s">
-        <v>149</v>
+        <v>9</v>
+      </c>
+      <c r="P2" s="90" t="s">
+        <v>143</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="103" t="s">
+      <c r="R2" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="36" t="s">
-        <v>61</v>
+      <c r="S2" s="35" t="s">
+        <v>57</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="W2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y2" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB2" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>3</v>
@@ -3785,83 +3820,83 @@
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
+      <c r="C3" s="120" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="120" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" s="120" t="s">
+        <v>211</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>44</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="120" t="s">
+        <v>212</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="90" t="s">
-        <v>153</v>
+        <v>12</v>
+      </c>
+      <c r="M3" s="120" t="s">
+        <v>213</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="S3" s="69" t="s">
-        <v>117</v>
+        <v>14</v>
+      </c>
+      <c r="P3" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="R3" s="120" t="s">
+        <v>209</v>
+      </c>
+      <c r="S3" s="120" t="s">
+        <v>214</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="U3" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="90" t="s">
-        <v>153</v>
+        <v>14</v>
+      </c>
+      <c r="U3" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="120" t="s">
+        <v>213</v>
       </c>
       <c r="W3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y3" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Y3" s="20" t="s">
-        <v>18</v>
-      </c>
       <c r="Z3" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA3" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB3" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>5</v>
@@ -3889,284 +3924,284 @@
       </c>
     </row>
     <row r="4" spans="1:36" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="J4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="K4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q4" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="S4" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="115" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="AA4" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="AB4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="93" t="s">
+      <c r="AC4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH4" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI4" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ4" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="57">
+        <v>102010101</v>
+      </c>
+      <c r="B5" s="57">
+        <v>102</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="57">
+        <v>1</v>
+      </c>
+      <c r="S5" s="118" t="s">
+        <v>205</v>
+      </c>
+      <c r="W5" s="57">
+        <v>2</v>
+      </c>
+      <c r="X5" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="57">
+        <v>10000</v>
+      </c>
+      <c r="AE5" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="57">
+        <v>102010102</v>
+      </c>
+      <c r="B6" s="113" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="O4" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="99" t="s">
-        <v>165</v>
-      </c>
-      <c r="R4" s="107" t="s">
-        <v>183</v>
-      </c>
-      <c r="S4" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="T4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="W4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="X4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE4" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG4" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH4" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI4" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="AJ4" s="34" t="s">
-        <v>56</v>
+      <c r="G6" s="106" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="113" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="57">
+        <v>2</v>
+      </c>
+      <c r="T6" s="57">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="57">
+        <v>10000</v>
+      </c>
+      <c r="AE6" s="57">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
-        <v>102010101</v>
-      </c>
-      <c r="B5" s="58">
+    <row r="7" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="57">
+        <v>102010103</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="57">
+        <v>1</v>
+      </c>
+      <c r="S7" s="114" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC7" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="57">
+        <v>10000</v>
+      </c>
+      <c r="AE7" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="104" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="104">
+        <v>102020101</v>
+      </c>
+      <c r="B8" s="104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="104">
+        <v>1</v>
+      </c>
+      <c r="S8" s="105" t="s">
+        <v>177</v>
+      </c>
+      <c r="W8" s="104">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="104">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="104">
+        <v>8000</v>
+      </c>
+      <c r="AE8" s="104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="57">
+        <v>102100101</v>
+      </c>
+      <c r="B9" s="57">
         <v>102</v>
       </c>
-      <c r="C5" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="H5" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="I5" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="58">
-        <v>1</v>
-      </c>
-      <c r="S5" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="W5" s="58">
+      <c r="C9" s="116" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="114" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="57">
+        <v>1</v>
+      </c>
+      <c r="S9" s="117" t="s">
+        <v>204</v>
+      </c>
+      <c r="W9" s="57">
         <v>2</v>
       </c>
-      <c r="X5" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="58">
-        <v>10000</v>
-      </c>
-      <c r="AE5" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58">
-        <v>102010102</v>
-      </c>
-      <c r="B6" s="117" t="s">
-        <v>202</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="110" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="117" t="s">
-        <v>201</v>
-      </c>
-      <c r="I6" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="L6" s="58">
-        <v>2</v>
-      </c>
-      <c r="T6" s="58">
-        <v>5</v>
-      </c>
-      <c r="AC6" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="58">
-        <v>10000</v>
-      </c>
-      <c r="AE6" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
-        <v>102010103</v>
-      </c>
-      <c r="B7" s="113" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="94" t="s">
-        <v>160</v>
-      </c>
-      <c r="H7" s="58" t="s">
-        <v>203</v>
-      </c>
-      <c r="L7" s="58">
-        <v>1</v>
-      </c>
-      <c r="S7" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC7" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="58">
-        <v>10000</v>
-      </c>
-      <c r="AE7" s="58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" s="108" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="108">
-        <v>102020101</v>
-      </c>
-      <c r="B8" s="108" t="s">
-        <v>185</v>
-      </c>
-      <c r="C8" s="108" t="s">
-        <v>186</v>
-      </c>
-      <c r="L8" s="108">
-        <v>1</v>
-      </c>
-      <c r="S8" s="109" t="s">
-        <v>187</v>
-      </c>
-      <c r="W8" s="108">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="108">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="108">
-        <v>8000</v>
-      </c>
-      <c r="AE8" s="108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
-        <v>102100101</v>
-      </c>
-      <c r="B9" s="58">
-        <v>102</v>
-      </c>
-      <c r="C9" s="120" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="I9" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="58">
-        <v>1</v>
-      </c>
-      <c r="S9" s="121" t="s">
-        <v>214</v>
-      </c>
-      <c r="W9" s="58">
-        <v>2</v>
-      </c>
-      <c r="X9" s="58">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="58">
+      <c r="X9" s="57">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="57">
         <v>5000</v>
       </c>
-      <c r="AE9" s="58">
+      <c r="AE9" s="57">
         <v>1</v>
       </c>
     </row>
@@ -4174,13 +4209,13 @@
       <c r="A10" s="4">
         <v>105200101</v>
       </c>
-      <c r="C10" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="42"/>
+      <c r="C10" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="41"/>
       <c r="L10" s="18">
         <v>0</v>
       </c>
@@ -4226,21 +4261,21 @@
         <v>105060101</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>102</v>
+      <c r="C11" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="18">
         <v>1</v>
       </c>
-      <c r="S11" s="68" t="s">
-        <v>116</v>
+      <c r="S11" s="67" t="s">
+        <v>111</v>
       </c>
       <c r="W11" s="18">
         <v>2</v>
@@ -4274,8 +4309,8 @@
       <c r="A12" s="4">
         <v>105200102</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>54</v>
+      <c r="C12" s="32" t="s">
+        <v>50</v>
       </c>
       <c r="L12" s="18">
         <v>2</v>
@@ -4315,70 +4350,70 @@
       </c>
     </row>
     <row r="13" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="61">
+      <c r="A13" s="60">
         <v>105010401</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62" t="s">
-        <v>93</v>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61" t="s">
+        <v>88</v>
       </c>
       <c r="L13" s="18">
         <v>2</v>
       </c>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
       <c r="T13" s="18">
         <v>1</v>
       </c>
-      <c r="V13" s="40"/>
+      <c r="V13" s="39"/>
       <c r="AD13" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="62">
+      <c r="A14" s="61">
         <v>105020103</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62" t="s">
-        <v>94</v>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61" t="s">
+        <v>89</v>
       </c>
       <c r="L14" s="18">
         <v>2</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
       <c r="T14" s="18">
         <v>1</v>
       </c>
-      <c r="V14" s="40"/>
+      <c r="V14" s="39"/>
       <c r="AD14" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62">
+      <c r="A15" s="61">
         <v>105040102</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62" t="s">
-        <v>95</v>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61" t="s">
+        <v>90</v>
       </c>
       <c r="L15" s="18">
         <v>2</v>
       </c>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
       <c r="T15" s="18">
         <v>1</v>
       </c>
-      <c r="V15" s="40"/>
+      <c r="V15" s="39"/>
       <c r="AD15" s="4">
         <v>3000</v>
       </c>
@@ -4389,16 +4424,16 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="I16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L16" s="18">
         <v>2</v>
@@ -4421,17 +4456,17 @@
         <v>100001</v>
       </c>
       <c r="B17" s="5"/>
-      <c r="C17" s="33" t="s">
-        <v>60</v>
+      <c r="C17" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="L17" s="18">
         <v>2</v>
@@ -4463,21 +4498,21 @@
         <v>100002</v>
       </c>
       <c r="B18" s="5"/>
-      <c r="C18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="53" t="s">
-        <v>104</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>102</v>
+      <c r="C18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="52" t="s">
+        <v>97</v>
       </c>
       <c r="K18" s="24"/>
       <c r="L18" s="18">
         <v>1</v>
       </c>
-      <c r="S18" s="46" t="s">
-        <v>105</v>
+      <c r="S18" s="45" t="s">
+        <v>100</v>
       </c>
       <c r="W18" s="18">
         <v>2</v>
@@ -4508,12 +4543,12 @@
       </c>
     </row>
     <row r="19" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39">
+      <c r="A19" s="38">
         <v>100003</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="64" t="s">
-        <v>96</v>
+      <c r="B19" s="38"/>
+      <c r="C19" s="63" t="s">
+        <v>91</v>
       </c>
       <c r="L19" s="18">
         <v>3</v>
@@ -4522,290 +4557,290 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="33"/>
-      <c r="V19" s="64" t="s">
-        <v>106</v>
+      <c r="S19" s="32"/>
+      <c r="V19" s="63" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:36" s="62" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62">
+    <row r="20" spans="1:36" s="61" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61">
         <v>109000000</v>
       </c>
-      <c r="C20" s="62" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" s="62">
-        <v>0</v>
-      </c>
-      <c r="W20" s="62">
-        <v>1</v>
-      </c>
-      <c r="X20" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="62">
+      <c r="C20" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" s="61">
+        <v>0</v>
+      </c>
+      <c r="W20" s="61">
+        <v>1</v>
+      </c>
+      <c r="X20" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="61">
         <v>2</v>
       </c>
-      <c r="AC20" s="62">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="62">
+      <c r="AC20" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="61">
         <v>4000</v>
       </c>
-      <c r="AE20" s="62">
+      <c r="AE20" s="61">
         <v>2</v>
       </c>
-      <c r="AF20" s="62">
+      <c r="AF20" s="61">
         <v>2</v>
       </c>
-      <c r="AG20" s="62">
+      <c r="AG20" s="61">
         <v>4</v>
       </c>
-      <c r="AH20" s="62">
+      <c r="AH20" s="61">
         <v>109000001</v>
       </c>
-      <c r="AJ20" s="62">
+      <c r="AJ20" s="61">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" s="62" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62">
+    <row r="21" spans="1:36" s="61" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61">
         <v>109000001</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="D21" s="62" t="s">
+      <c r="C21" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="61" t="s">
         <v>155</v>
       </c>
-      <c r="F21" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" s="62">
+      <c r="L21" s="61">
         <v>4</v>
       </c>
-      <c r="N21" s="62">
-        <v>1</v>
-      </c>
-      <c r="O21" s="62">
+      <c r="N21" s="61">
+        <v>1</v>
+      </c>
+      <c r="O21" s="61">
         <v>3</v>
       </c>
-      <c r="P21" s="62">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="R21" s="62" t="s">
-        <v>184</v>
-      </c>
-      <c r="W21" s="62">
-        <v>1</v>
-      </c>
-      <c r="X21" s="62">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="62">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="62">
+      <c r="P21" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="R21" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="W21" s="61">
+        <v>1</v>
+      </c>
+      <c r="X21" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="61">
         <v>2</v>
       </c>
-      <c r="AC21" s="62">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="62">
+      <c r="AC21" s="61">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="61">
         <v>-1</v>
       </c>
-      <c r="AE21" s="62">
+      <c r="AE21" s="61">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39">
+      <c r="A22" s="38">
         <v>109040101</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="50" t="s">
-        <v>70</v>
+      <c r="B22" s="38"/>
+      <c r="C22" s="49" t="s">
+        <v>66</v>
       </c>
       <c r="L22" s="18">
         <v>3</v>
       </c>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
-      <c r="V22" s="40" t="s">
-        <v>107</v>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="V22" s="39" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:36" s="75" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="73">
+    <row r="23" spans="1:36" s="74" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="72">
         <v>109040102</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="L23" s="76">
+      <c r="B23" s="72"/>
+      <c r="C23" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="L23" s="75">
         <v>2</v>
       </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="T23" s="76">
-        <v>1</v>
-      </c>
-      <c r="U23" s="76"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AD23" s="75">
+      <c r="M23" s="75"/>
+      <c r="N23" s="75"/>
+      <c r="O23" s="76"/>
+      <c r="P23" s="76"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="76"/>
+      <c r="T23" s="75">
+        <v>1</v>
+      </c>
+      <c r="U23" s="75"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="75"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="75"/>
+      <c r="AD23" s="74">
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:36" s="75" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="75">
+    <row r="24" spans="1:36" s="74" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="74">
         <v>109040103</v>
       </c>
-      <c r="C24" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="79" t="s">
-        <v>102</v>
-      </c>
-      <c r="L24" s="76">
-        <v>1</v>
-      </c>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="S24" s="80" t="s">
+      <c r="C24" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="75">
+        <v>1</v>
+      </c>
+      <c r="M24" s="75"/>
+      <c r="N24" s="75"/>
+      <c r="S24" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="T24" s="75"/>
+      <c r="U24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="74">
+        <v>10000</v>
+      </c>
+      <c r="AE24" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" s="86" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="86">
+        <v>109010101</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="86">
+        <v>3</v>
+      </c>
+      <c r="V25" s="86" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" s="86" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="87">
+        <v>109010102</v>
+      </c>
+      <c r="B26" s="87"/>
+      <c r="C26" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" s="77"/>
+      <c r="I26" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="86">
+        <v>1</v>
+      </c>
+      <c r="S26" s="99" t="s">
+        <v>159</v>
+      </c>
+      <c r="W26" s="86">
+        <v>2</v>
+      </c>
+      <c r="X26" s="86">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="86">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="86">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="86">
+        <v>2000</v>
+      </c>
+      <c r="AE26" s="86">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="86">
+        <v>1</v>
+      </c>
+      <c r="AG26" s="86">
+        <v>1</v>
+      </c>
+      <c r="AJ26" s="86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" s="86" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="86">
+        <v>109020101</v>
+      </c>
+      <c r="C27" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="81">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="75">
-        <v>10000</v>
-      </c>
-      <c r="AE24" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" s="87" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="87">
-        <v>109010101</v>
-      </c>
-      <c r="C25" s="87" t="s">
-        <v>140</v>
-      </c>
-      <c r="L25" s="87">
-        <v>3</v>
-      </c>
-      <c r="V25" s="87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:36" s="87" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="88">
-        <v>109010102</v>
-      </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="I26" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="87">
-        <v>1</v>
-      </c>
-      <c r="S26" s="102" t="s">
-        <v>168</v>
-      </c>
-      <c r="W26" s="87">
+      <c r="D27" s="86" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="K27" s="86" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="86">
         <v>2</v>
       </c>
-      <c r="X26" s="87">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="87">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="87">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="87">
-        <v>2000</v>
-      </c>
-      <c r="AE26" s="87">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="87">
-        <v>1</v>
-      </c>
-      <c r="AG26" s="87">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:36" s="87" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="87">
-        <v>109020101</v>
-      </c>
-      <c r="C27" s="74" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="I27" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="K27" s="87" t="s">
-        <v>103</v>
-      </c>
-      <c r="L27" s="87">
-        <v>2</v>
-      </c>
-      <c r="T27" s="87">
+      <c r="T27" s="86">
         <v>4</v>
       </c>
-      <c r="AC27" s="87">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="87">
+      <c r="AC27" s="86">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="86">
         <v>1000</v>
       </c>
-      <c r="AE27" s="87">
+      <c r="AE27" s="86">
         <v>1</v>
       </c>
     </row>
@@ -4813,8 +4848,8 @@
       <c r="A28" s="4">
         <v>109000101</v>
       </c>
-      <c r="C28" s="44" t="s">
-        <v>76</v>
+      <c r="C28" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="L28" s="18">
         <v>3</v>
@@ -4823,9 +4858,9 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="33"/>
+      <c r="S28" s="32"/>
       <c r="V28" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4833,13 +4868,13 @@
         <v>109000102</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L29" s="18">
         <v>3</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4847,13 +4882,13 @@
         <v>109000104</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L30" s="18">
         <v>3</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4861,13 +4896,13 @@
         <v>109010301</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="L31" s="18">
         <v>3</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4875,353 +4910,353 @@
         <v>109020201</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L32" s="18">
         <v>3</v>
       </c>
       <c r="V32" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L33" s="18">
         <v>3</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="V33" s="28" t="s">
-        <v>111</v>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="V33" s="27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>301000101</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>49</v>
+      <c r="C34" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="L34" s="18">
         <v>3</v>
       </c>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="V34" s="29" t="s">
-        <v>112</v>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="V34" s="28" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="57">
+    <row r="35" spans="1:36" s="56" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="56">
         <v>110900101</v>
       </c>
-      <c r="B35" s="104" t="s">
-        <v>178</v>
-      </c>
-      <c r="C35" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I35" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="L35" s="57">
-        <v>0</v>
-      </c>
-      <c r="W35" s="57">
-        <v>1</v>
-      </c>
-      <c r="X35" s="57">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="57">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="57">
+      <c r="B35" s="101" t="s">
+        <v>169</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="L35" s="56">
+        <v>0</v>
+      </c>
+      <c r="W35" s="56">
+        <v>1</v>
+      </c>
+      <c r="X35" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="56">
         <v>2</v>
       </c>
-      <c r="AC35" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="57">
+      <c r="AC35" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="56">
         <v>10000</v>
       </c>
-      <c r="AE35" s="57">
+      <c r="AE35" s="56">
         <v>2</v>
       </c>
-      <c r="AF35" s="57">
+      <c r="AF35" s="56">
         <v>2</v>
       </c>
-      <c r="AG35" s="57">
+      <c r="AG35" s="56">
         <v>3</v>
       </c>
-      <c r="AJ35" s="57">
+      <c r="AJ35" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="57">
+    <row r="36" spans="1:36" s="56" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="56">
         <v>110900102</v>
       </c>
-      <c r="C36" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="I36" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="L36" s="57">
-        <v>0</v>
-      </c>
-      <c r="W36" s="57">
-        <v>1</v>
-      </c>
-      <c r="X36" s="57">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="57">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="57">
+      <c r="C36" s="83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="62" t="s">
+        <v>92</v>
+      </c>
+      <c r="I36" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="L36" s="56">
+        <v>0</v>
+      </c>
+      <c r="W36" s="56">
+        <v>1</v>
+      </c>
+      <c r="X36" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="56">
         <v>2</v>
       </c>
-      <c r="AC36" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="57">
+      <c r="AC36" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="56">
         <v>8000</v>
       </c>
-      <c r="AE36" s="57">
+      <c r="AE36" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="58">
+    <row r="37" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="57">
         <v>110100101</v>
       </c>
-      <c r="C37" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="D37" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K37" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="L37" s="58">
+      <c r="C37" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="K37" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="57">
         <v>2</v>
       </c>
-      <c r="T37" s="58">
+      <c r="T37" s="57">
         <v>4</v>
       </c>
-      <c r="AC37" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="58">
+      <c r="AC37" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="57">
         <v>2000</v>
       </c>
-      <c r="AE37" s="58">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="58">
-        <v>1</v>
-      </c>
-      <c r="AG37" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ37" s="58">
+      <c r="AE37" s="57">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="57">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="57">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58">
+    <row r="38" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="57">
         <v>110100102</v>
       </c>
-      <c r="B38" s="104" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="L38" s="58">
-        <v>1</v>
-      </c>
-      <c r="S38" s="59" t="s">
-        <v>105</v>
-      </c>
-      <c r="W38" s="58">
+      <c r="B38" s="101" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>121</v>
+      </c>
+      <c r="L38" s="57">
+        <v>1</v>
+      </c>
+      <c r="S38" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="W38" s="57">
         <v>2</v>
       </c>
-      <c r="X38" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="58">
+      <c r="X38" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="57">
         <v>4000</v>
       </c>
-      <c r="AE38" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ38" s="58">
+      <c r="AE38" s="57">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="58">
+    <row r="39" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="57">
         <v>110000104</v>
       </c>
-      <c r="C39" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="L39" s="58">
+      <c r="C39" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="L39" s="57">
         <v>3</v>
       </c>
-      <c r="V39" s="61" t="s">
-        <v>114</v>
+      <c r="V39" s="60" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="57">
+    <row r="40" spans="1:36" s="56" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="56">
         <v>110020101</v>
       </c>
-      <c r="C40" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" s="63"/>
-      <c r="I40" s="65"/>
-      <c r="L40" s="57">
-        <v>0</v>
-      </c>
-      <c r="W40" s="57">
+      <c r="C40" s="81" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" s="62"/>
+      <c r="I40" s="64"/>
+      <c r="L40" s="56">
+        <v>0</v>
+      </c>
+      <c r="W40" s="56">
         <v>2</v>
       </c>
-      <c r="X40" s="57">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="57">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="57">
+      <c r="X40" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="56">
         <v>2</v>
       </c>
-      <c r="AC40" s="57">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="57">
+      <c r="AC40" s="56">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="56">
         <v>5000</v>
       </c>
-      <c r="AE40" s="57">
+      <c r="AE40" s="56">
         <v>2</v>
       </c>
-      <c r="AF40" s="57">
+      <c r="AF40" s="56">
         <v>2</v>
       </c>
-      <c r="AG40" s="57">
+      <c r="AG40" s="56">
         <v>2</v>
       </c>
-      <c r="AH40" s="57">
+      <c r="AH40" s="56">
         <v>110020102</v>
       </c>
-      <c r="AJ40" s="57">
+      <c r="AJ40" s="56">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:36" s="58" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="58">
+    <row r="41" spans="1:36" s="57" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="57">
         <v>110020102</v>
       </c>
-      <c r="B41" s="104" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="L41" s="58">
-        <v>1</v>
-      </c>
-      <c r="S41" s="83" t="s">
-        <v>126</v>
-      </c>
-      <c r="W41" s="58">
+      <c r="B41" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="L41" s="57">
+        <v>1</v>
+      </c>
+      <c r="S41" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="W41" s="57">
         <v>2</v>
       </c>
-      <c r="X41" s="58">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="58">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="58">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="58">
+      <c r="X41" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="57">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="57">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="57">
         <v>3000</v>
       </c>
-      <c r="AE41" s="58">
-        <v>1</v>
-      </c>
-      <c r="AJ41" s="58">
+      <c r="AE41" s="57">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="57">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="39">
+      <c r="A42" s="38">
         <v>127020101</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="50" t="s">
-        <v>139</v>
+      <c r="B42" s="38"/>
+      <c r="C42" s="49" t="s">
+        <v>133</v>
       </c>
       <c r="L42" s="18">
         <v>3</v>
       </c>
-      <c r="O42" s="40"/>
-      <c r="P42" s="40"/>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="V42" s="72" t="s">
-        <v>125</v>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="V42" s="71" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>900001</v>
       </c>
-      <c r="C43" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="I43" s="60" t="s">
-        <v>102</v>
+      <c r="C43" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="59" t="s">
+        <v>97</v>
       </c>
       <c r="L43" s="18">
         <v>1</v>
       </c>
-      <c r="S43" s="70" t="s">
-        <v>119</v>
+      <c r="S43" s="69" t="s">
+        <v>113</v>
       </c>
       <c r="W43" s="18">
         <v>1</v>
@@ -5254,319 +5289,319 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:36" s="71" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="71">
+    <row r="44" spans="1:36" s="70" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="70">
         <v>900002</v>
       </c>
-      <c r="C44" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="71" t="s">
+      <c r="C44" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="I44" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="L44" s="71">
-        <v>1</v>
-      </c>
-      <c r="S44" s="70" t="s">
-        <v>123</v>
-      </c>
-      <c r="W44" s="71">
-        <v>1</v>
-      </c>
-      <c r="X44" s="71">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="71">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="71">
+      <c r="D44" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="I44" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" s="70">
+        <v>1</v>
+      </c>
+      <c r="S44" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="W44" s="70">
+        <v>1</v>
+      </c>
+      <c r="X44" s="70">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="70">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="70">
         <v>2</v>
       </c>
-      <c r="AC44" s="71">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="71">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="71">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="71">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="71">
+      <c r="AC44" s="70">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="70">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="70">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="70">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:36" s="71" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="71">
+    <row r="45" spans="1:36" s="70" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="70">
         <v>900003</v>
       </c>
-      <c r="C45" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="I45" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="L45" s="71">
-        <v>1</v>
-      </c>
-      <c r="S45" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="W45" s="71">
-        <v>1</v>
-      </c>
-      <c r="X45" s="71">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="71">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="71">
+      <c r="C45" s="70" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" s="70">
+        <v>1</v>
+      </c>
+      <c r="S45" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="W45" s="70">
+        <v>1</v>
+      </c>
+      <c r="X45" s="70">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="70">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="70">
         <v>2</v>
       </c>
-      <c r="AC45" s="71">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="71">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="71">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="71">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ45" s="71">
+      <c r="AC45" s="70">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="70">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="70">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="70">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:36" s="71" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="71">
+    <row r="46" spans="1:36" s="70" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="70">
         <v>900004</v>
       </c>
-      <c r="C46" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="D46" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="I46" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="L46" s="71">
+      <c r="C46" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="I46" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="L46" s="70">
         <v>2</v>
       </c>
-      <c r="T46" s="71">
+      <c r="T46" s="70">
         <v>2</v>
       </c>
-      <c r="W46" s="71">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="71">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="71">
+      <c r="W46" s="70">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="70">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="70">
         <v>2</v>
       </c>
-      <c r="AC46" s="71">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="71">
+      <c r="AC46" s="70">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="70">
         <v>4000</v>
       </c>
-      <c r="AE46" s="71">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="71">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="71">
-        <v>1</v>
-      </c>
-      <c r="AJ46" s="71">
+      <c r="AE46" s="70">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="70">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="70">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:36" s="75" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="75">
+    <row r="47" spans="1:36" s="74" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="74">
         <v>127900101</v>
       </c>
-      <c r="C47" s="74" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="87"/>
-      <c r="I47" s="79"/>
-      <c r="L47" s="76">
+      <c r="C47" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="86"/>
+      <c r="I47" s="78"/>
+      <c r="L47" s="75">
         <v>2</v>
       </c>
-      <c r="M47" s="76"/>
-      <c r="N47" s="76"/>
-      <c r="S47" s="80"/>
-      <c r="T47" s="76">
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="S47" s="79"/>
+      <c r="T47" s="75">
         <v>14</v>
       </c>
-      <c r="U47" s="76"/>
-      <c r="W47" s="76"/>
-      <c r="X47" s="76"/>
-      <c r="Y47" s="76"/>
-      <c r="Z47" s="76"/>
-      <c r="AA47" s="76"/>
-      <c r="AB47" s="76"/>
-      <c r="AC47" s="81">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="75">
+      <c r="U47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
+      <c r="AA47" s="75"/>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="74">
         <v>5000</v>
       </c>
-      <c r="AE47" s="75">
+      <c r="AE47" s="74">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:36" s="75" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="75">
+    <row r="48" spans="1:36" s="74" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="74">
         <v>127900102</v>
       </c>
-      <c r="C48" s="74" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="78"/>
-      <c r="I48" s="79"/>
-      <c r="L48" s="76">
-        <v>1</v>
-      </c>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="S48" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="T48" s="76"/>
-      <c r="U48" s="76"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="76"/>
-      <c r="Y48" s="76"/>
-      <c r="Z48" s="76"/>
-      <c r="AA48" s="76"/>
-      <c r="AB48" s="76"/>
-      <c r="AC48" s="81">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="75">
+      <c r="C48" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="77"/>
+      <c r="I48" s="78"/>
+      <c r="L48" s="75">
+        <v>1</v>
+      </c>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="S48" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="T48" s="75"/>
+      <c r="U48" s="75"/>
+      <c r="W48" s="75"/>
+      <c r="X48" s="75"/>
+      <c r="Y48" s="75"/>
+      <c r="Z48" s="75"/>
+      <c r="AA48" s="75"/>
+      <c r="AB48" s="75"/>
+      <c r="AC48" s="80">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="74">
         <v>5000</v>
       </c>
-      <c r="AE48" s="75">
+      <c r="AE48" s="74">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:36" s="86" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="85">
+    <row r="49" spans="1:36" s="85" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="84">
         <v>127010101</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="74" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="I49" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="K49" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="L49" s="86">
+      <c r="B49" s="84"/>
+      <c r="C49" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I49" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K49" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" s="85">
         <v>2</v>
       </c>
-      <c r="T49" s="86">
+      <c r="T49" s="85">
         <v>4</v>
       </c>
-      <c r="AC49" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="86">
+      <c r="AC49" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="85">
         <v>1000</v>
       </c>
-      <c r="AE49" s="86">
+      <c r="AE49" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:36" s="86" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="85">
+    <row r="50" spans="1:36" s="85" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="84">
         <v>127010102</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="I50" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="K50" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="L50" s="86">
+      <c r="B50" s="84"/>
+      <c r="C50" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I50" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K50" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" s="85">
         <v>2</v>
       </c>
-      <c r="T50" s="86">
+      <c r="T50" s="85">
         <v>4</v>
       </c>
-      <c r="AC50" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="86">
+      <c r="AC50" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="85">
         <v>1500</v>
       </c>
-      <c r="AE50" s="86">
+      <c r="AE50" s="85">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:36" s="86" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="85">
+    <row r="51" spans="1:36" s="85" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="84">
         <v>127040101</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="74" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="I51" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="L51" s="86">
+      <c r="B51" s="84"/>
+      <c r="C51" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="K51" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" s="85">
         <v>2</v>
       </c>
-      <c r="T51" s="86">
+      <c r="T51" s="85">
         <v>4</v>
       </c>
-      <c r="AC51" s="86">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="86">
+      <c r="AC51" s="85">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="85">
         <v>1000</v>
       </c>
-      <c r="AE51" s="86">
+      <c r="AE51" s="85">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +5609,18 @@
       <c r="A52" s="4">
         <v>104000000</v>
       </c>
-      <c r="C52" s="50" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="118" t="s">
-        <v>209</v>
-      </c>
-      <c r="E52" s="110" t="s">
-        <v>196</v>
-      </c>
-      <c r="F52" s="56"/>
-      <c r="I52" s="82" t="s">
-        <v>134</v>
+      <c r="C52" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="114" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="106" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="55"/>
+      <c r="I52" s="81" t="s">
+        <v>128</v>
       </c>
       <c r="L52" s="4">
         <v>4</v>
@@ -5597,7 +5632,10 @@
       <c r="O52" s="4">
         <v>300</v>
       </c>
-      <c r="S52" s="118"/>
+      <c r="P52" s="4">
+        <v>7</v>
+      </c>
+      <c r="S52" s="114"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
       <c r="W52" s="4">
@@ -5622,66 +5660,66 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:36" s="110" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="110">
+    <row r="53" spans="1:36" s="106" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="106">
         <v>104000001</v>
       </c>
-      <c r="C53" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="L53" s="110">
-        <v>1</v>
-      </c>
-      <c r="S53" s="110" t="s">
-        <v>195</v>
-      </c>
-      <c r="W53" s="110">
+      <c r="C53" s="114" t="s">
+        <v>197</v>
+      </c>
+      <c r="L53" s="106">
+        <v>1</v>
+      </c>
+      <c r="S53" s="106" t="s">
+        <v>185</v>
+      </c>
+      <c r="W53" s="106">
         <v>2</v>
       </c>
-      <c r="X53" s="110">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="110">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="110">
+      <c r="X53" s="106">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="106">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="106">
         <v>2</v>
       </c>
-      <c r="AC53" s="110">
+      <c r="AC53" s="106">
         <v>800</v>
       </c>
-      <c r="AD53" s="110">
+      <c r="AD53" s="106">
         <v>5000</v>
       </c>
-      <c r="AE53" s="110">
-        <v>1</v>
-      </c>
-      <c r="AF53" s="110">
-        <v>1</v>
-      </c>
-      <c r="AG53" s="110">
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="110">
+      <c r="AE53" s="106">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="106">
+        <v>1</v>
+      </c>
+      <c r="AG53" s="106">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="106">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="110">
+      <c r="A54" s="106">
         <v>104000002</v>
       </c>
       <c r="B54" s="5"/>
-      <c r="C54" s="118" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="53"/>
-      <c r="I54" s="53"/>
+      <c r="C54" s="114" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="52"/>
+      <c r="I54" s="52"/>
       <c r="K54" s="24"/>
       <c r="L54" s="18">
         <v>1</v>
       </c>
-      <c r="S54" s="119" t="s">
-        <v>208</v>
+      <c r="S54" s="115" t="s">
+        <v>198</v>
       </c>
       <c r="W54" s="18">
         <v>2</v>
@@ -5712,24 +5750,24 @@
       </c>
     </row>
     <row r="55" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="39">
+      <c r="A55" s="38">
         <v>200001</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="50" t="s">
-        <v>189</v>
+      <c r="B55" s="38"/>
+      <c r="C55" s="49" t="s">
+        <v>179</v>
       </c>
       <c r="L55" s="18">
         <v>5</v>
       </c>
-      <c r="M55" s="118" t="s">
-        <v>210</v>
-      </c>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="V55" s="40"/>
+      <c r="M55" s="114" t="s">
+        <v>200</v>
+      </c>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="39"/>
+      <c r="R55" s="39"/>
+      <c r="V55" s="39"/>
       <c r="W55" s="18">
         <v>2</v>
       </c>
@@ -5744,24 +5782,24 @@
       </c>
     </row>
     <row r="56" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39">
+      <c r="A56" s="38">
         <v>200002</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="50" t="s">
-        <v>190</v>
+      <c r="B56" s="38"/>
+      <c r="C56" s="49" t="s">
+        <v>180</v>
       </c>
       <c r="L56" s="18">
         <v>5</v>
       </c>
-      <c r="M56" s="118" t="s">
-        <v>211</v>
-      </c>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="V56" s="40"/>
+      <c r="M56" s="114" t="s">
+        <v>201</v>
+      </c>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="39"/>
+      <c r="R56" s="39"/>
+      <c r="V56" s="39"/>
       <c r="W56" s="18">
         <v>2</v>
       </c>
@@ -5776,24 +5814,24 @@
       </c>
     </row>
     <row r="57" spans="1:36" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39">
+      <c r="A57" s="38">
         <v>200003</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="50" t="s">
-        <v>191</v>
+      <c r="B57" s="38"/>
+      <c r="C57" s="49" t="s">
+        <v>181</v>
       </c>
       <c r="L57" s="18">
         <v>5</v>
       </c>
-      <c r="M57" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="V57" s="40"/>
+      <c r="M57" s="114" t="s">
+        <v>202</v>
+      </c>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="V57" s="39"/>
       <c r="W57" s="18">
         <v>2</v>
       </c>
@@ -5807,232 +5845,232 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:36" s="97" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="97">
+    <row r="58" spans="1:36" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="95">
         <v>321020101</v>
       </c>
-      <c r="C58" s="97" t="s">
+      <c r="C58" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="L58" s="95">
+        <v>3</v>
+      </c>
+      <c r="N58" s="96"/>
+      <c r="T58" s="96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:36" s="107" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="107">
+        <v>322000101</v>
+      </c>
+      <c r="C59" s="108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D59" s="108" t="s">
+        <v>183</v>
+      </c>
+      <c r="I59" s="108" t="s">
+        <v>184</v>
+      </c>
+      <c r="L59" s="107">
+        <v>1</v>
+      </c>
+      <c r="P59" s="107" t="s">
+        <v>167</v>
+      </c>
+      <c r="V59" s="107">
+        <v>2</v>
+      </c>
+      <c r="W59" s="107">
+        <v>3</v>
+      </c>
+      <c r="X59" s="107">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="107">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="107">
+        <v>4000</v>
+      </c>
+      <c r="AD59" s="107">
+        <v>1</v>
+      </c>
+      <c r="AI59" s="107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:36" s="95" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="95">
+        <v>322010101</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="L58" s="97">
+      <c r="I60" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="L60" s="95">
+        <v>1</v>
+      </c>
+      <c r="P60" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="V60" s="95">
+        <v>2</v>
+      </c>
+      <c r="W60" s="95">
         <v>3</v>
       </c>
-      <c r="N58" s="98"/>
-      <c r="T58" s="98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:36" s="111" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="111">
-        <v>322000101</v>
-      </c>
-      <c r="C59" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="D59" s="112" t="s">
-        <v>193</v>
-      </c>
-      <c r="I59" s="112" t="s">
-        <v>194</v>
-      </c>
-      <c r="L59" s="111">
-        <v>1</v>
-      </c>
-      <c r="P59" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="V59" s="111">
-        <v>2</v>
-      </c>
-      <c r="W59" s="111">
-        <v>3</v>
-      </c>
-      <c r="X59" s="111">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="111">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="111">
+      <c r="X60" s="95">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="95">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="95">
         <v>4000</v>
       </c>
-      <c r="AD59" s="111">
-        <v>1</v>
-      </c>
-      <c r="AI59" s="111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:36" s="97" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="97">
-        <v>322010101</v>
-      </c>
-      <c r="C60" s="97" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="97" t="s">
-        <v>173</v>
-      </c>
-      <c r="I60" s="97" t="s">
-        <v>174</v>
-      </c>
-      <c r="L60" s="97">
-        <v>1</v>
-      </c>
-      <c r="P60" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="V60" s="97">
-        <v>2</v>
-      </c>
-      <c r="W60" s="97">
-        <v>3</v>
-      </c>
-      <c r="X60" s="97">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="97">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="97">
-        <v>4000</v>
-      </c>
-      <c r="AD60" s="97">
-        <v>1</v>
-      </c>
-      <c r="AI60" s="97">
+      <c r="AD60" s="95">
+        <v>1</v>
+      </c>
+      <c r="AI60" s="95">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="53" type="noConversion"/>
   <conditionalFormatting sqref="A16:B16">
-    <cfRule type="duplicateValues" dxfId="56" priority="97"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:B18">
-    <cfRule type="duplicateValues" dxfId="55" priority="84"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="84"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:B17">
-    <cfRule type="duplicateValues" dxfId="54" priority="83"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="83"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4">
-    <cfRule type="duplicateValues" dxfId="53" priority="82"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="82"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B23">
-    <cfRule type="duplicateValues" dxfId="52" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="80"/>
-    <cfRule type="duplicateValues" dxfId="50" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="80"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="81"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:B23">
-    <cfRule type="duplicateValues" dxfId="49" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="78"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:XFD4 A4:Q4 S4:AH4">
-    <cfRule type="duplicateValues" dxfId="48" priority="98"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="duplicateValues" dxfId="47" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="45" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B13">
-    <cfRule type="duplicateValues" dxfId="44" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="65"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="duplicateValues" dxfId="43" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="41" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="63"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="duplicateValues" dxfId="40" priority="60"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:B14">
-    <cfRule type="duplicateValues" dxfId="39" priority="64"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="duplicateValues" dxfId="38" priority="56"/>
-    <cfRule type="duplicateValues" dxfId="37" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="duplicateValues" dxfId="35" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="55"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B15">
-    <cfRule type="duplicateValues" dxfId="34" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="duplicateValues" dxfId="33" priority="52"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="54"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:B19">
-    <cfRule type="duplicateValues" dxfId="30" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="duplicateValues" dxfId="29" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="28" priority="38"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42:B42">
-    <cfRule type="duplicateValues" dxfId="25" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49:B49">
-    <cfRule type="duplicateValues" dxfId="24" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="36"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27">
-    <cfRule type="duplicateValues" dxfId="23" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26">
-    <cfRule type="duplicateValues" dxfId="22" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="duplicateValues" dxfId="21" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="duplicateValues" dxfId="20" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="24"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25">
-    <cfRule type="duplicateValues" dxfId="17" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="22"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51:B51">
-    <cfRule type="duplicateValues" dxfId="16" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B55">
-    <cfRule type="duplicateValues" dxfId="15" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:B55">
-    <cfRule type="duplicateValues" dxfId="12" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56">
-    <cfRule type="duplicateValues" dxfId="11" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:B56">
-    <cfRule type="duplicateValues" dxfId="8" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:B50">
-    <cfRule type="duplicateValues" dxfId="7" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B57">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A57:B57">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6051,7 +6089,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="52" type="noConversion"/>
+  <phoneticPr fontId="53" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
